--- a/biology/Médecine/Paul_Radaody_Ralarosy/Paul_Radaody_Ralarosy.xlsx
+++ b/biology/Médecine/Paul_Radaody_Ralarosy/Paul_Radaody_Ralarosy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Radaody-Ralarosy, né le 29 septembre 1908 à Tananarive et mort à Villejuif le 1er juillet 1973[1], est un médecin et pasteurien malgache. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Radaody-Ralarosy, né le 29 septembre 1908 à Tananarive et mort à Villejuif le 1er juillet 1973, est un médecin et pasteurien malgache. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est issu d'une famille où la place de l'État et de l'Église revêt une grande importance. Fils d'un gouverneur de l'Administration Indigène et petit-fils d'un tout premier médecin malgache, il fait partie des rares Malgaches à pouvoir continuer ses études durant la période correspondante.
 En 1928, il passe son baccalauréat ès-lettres classiques à Tananarive puis obtient son certificat d'études supérieures de physique, chimie et sciences naturelles à la faculté des sciences de Montpellier. Il est externe des Hôpitaux de Montpellier en 1932 et interne des Hôpitaux de Nîmes deux ans après.
@@ -548,7 +562,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dirige les laboratoires de la microbiologie générale et de l'hématologie à l'Institut Pasteur de Madagascar. Ses recherches portent sur le sang de la population malgache, et plus particulièrement sur l'éosinophilie et ses incidences pathologiques à Madagascar ; sur l'étude des bacilles pesteux atténués ; sur le cancer (période de 1956 à 1968). Il est élu de 1946 à 1960 président de la Société mutuelle du corps médical malgache. En 1947 il est nommé médecin principal de 2e classe du cadre local de l'AMI, à la demande de J. Robic, directeur du service de santé.
 L'année 1948 marque son entrée comme membre associé de l'Académie malgache. Il est fait chevalier de la Légion d'honneur et participe à une mission d'étude des groupes sanguins dans la région de Fianarantsoa (Madagascar). En 1957 il est nommé chef du Service de coordination sanitaire au ministère de la Santé publique de Madagascar. En 1958 il est élu président du Lion's Club international.
